--- a/WindowsFormsApp1/bin/Release/Template.xlsx
+++ b/WindowsFormsApp1/bin/Release/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김준우\Desktop\일일보고서 생성기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProjects\AutoDailyReport\WindowsFormsApp1\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8B4FA1-23DE-4804-A78B-30D1B02379BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B627343-C7D6-4043-A7D3-EB0A815EBC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="업무보고서" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>업  무  보  고  서</t>
   </si>
@@ -103,12 +103,16 @@
     <t>특이사항 없음</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>rf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,9 +168,16 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
+      <name val="나눔명조"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -320,10 +331,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,43 +385,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,7 +864,7 @@
   <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BB8" sqref="BB8"/>
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="12"/>
@@ -863,176 +874,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="16"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="6"/>
     </row>
     <row r="2" spans="1:42" ht="18" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="19"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="9"/>
     </row>
     <row r="3" spans="1:42" ht="18" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="19"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="9"/>
     </row>
     <row r="4" spans="1:42" ht="24.95" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="12">
         <v>0</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="12">
         <v>0</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="12">
         <v>0</v>
       </c>
-      <c r="R4" s="5"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1045,110 +1056,110 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13" t="s">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13" t="s">
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13" t="s">
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
     </row>
     <row r="5" spans="1:42" ht="24.95" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
     </row>
     <row r="6" spans="1:42" ht="24.95" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <f>G4</f>
         <v>0</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="12">
         <f>K4</f>
         <v>0</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="12">
         <f>N4</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1164,28 +1175,30 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
     </row>
     <row r="7" spans="1:42" ht="18" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1226,9 +1239,9 @@
       <c r="AP7" s="24"/>
     </row>
     <row r="8" spans="1:42" ht="18" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1270,9 +1283,9 @@
       <c r="AP8" s="24"/>
     </row>
     <row r="9" spans="1:42" ht="18" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1314,9 +1327,9 @@
       <c r="AP9" s="24"/>
     </row>
     <row r="10" spans="1:42" ht="18" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -1358,9 +1371,9 @@
       <c r="AP10" s="24"/>
     </row>
     <row r="11" spans="1:42" ht="18" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1402,9 +1415,9 @@
       <c r="AP11" s="24"/>
     </row>
     <row r="12" spans="1:42" ht="18" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1446,9 +1459,9 @@
       <c r="AP12" s="24"/>
     </row>
     <row r="13" spans="1:42" ht="18" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1490,9 +1503,9 @@
       <c r="AP13" s="24"/>
     </row>
     <row r="14" spans="1:42" ht="18" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -1534,9 +1547,9 @@
       <c r="AP14" s="24"/>
     </row>
     <row r="15" spans="1:42" ht="18" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -1578,9 +1591,9 @@
       <c r="AP15" s="24"/>
     </row>
     <row r="16" spans="1:42" ht="18" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -1622,9 +1635,9 @@
       <c r="AP16" s="24"/>
     </row>
     <row r="17" spans="1:42" ht="18" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -1666,9 +1679,9 @@
       <c r="AP17" s="24"/>
     </row>
     <row r="18" spans="1:42" ht="18" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1710,9 +1723,9 @@
       <c r="AP18" s="24"/>
     </row>
     <row r="19" spans="1:42" ht="18" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -1754,9 +1767,9 @@
       <c r="AP19" s="24"/>
     </row>
     <row r="20" spans="1:42" ht="18" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -1798,9 +1811,9 @@
       <c r="AP20" s="24"/>
     </row>
     <row r="21" spans="1:42" ht="18" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -1842,9 +1855,9 @@
       <c r="AP21" s="24"/>
     </row>
     <row r="22" spans="1:42" ht="18" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -1886,9 +1899,9 @@
       <c r="AP22" s="24"/>
     </row>
     <row r="23" spans="1:42" ht="18" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -1930,9 +1943,9 @@
       <c r="AP23" s="24"/>
     </row>
     <row r="24" spans="1:42" ht="18" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -1974,675 +1987,684 @@
       <c r="AP24" s="24"/>
     </row>
     <row r="25" spans="1:42" ht="18" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
     </row>
     <row r="26" spans="1:42" ht="18" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
     </row>
     <row r="27" spans="1:42" ht="18" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="7"/>
-      <c r="AJ27" s="7"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
     </row>
     <row r="28" spans="1:42" ht="18" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="7"/>
-      <c r="AJ28" s="7"/>
-      <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="7"/>
-      <c r="AN28" s="7"/>
-      <c r="AO28" s="7"/>
-      <c r="AP28" s="7"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
     </row>
     <row r="29" spans="1:42" ht="18" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="7"/>
-      <c r="AI29" s="7"/>
-      <c r="AJ29" s="7"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
     </row>
     <row r="30" spans="1:42" ht="18" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-      <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="17"/>
+      <c r="AP30" s="17"/>
     </row>
     <row r="31" spans="1:42" ht="18" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-      <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="17"/>
+      <c r="AO31" s="17"/>
+      <c r="AP31" s="17"/>
     </row>
     <row r="32" spans="1:42" ht="18" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-      <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
     </row>
     <row r="33" spans="1:42" ht="18" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
     </row>
     <row r="34" spans="1:42" ht="18" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
     </row>
     <row r="35" spans="1:42" ht="18" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
     </row>
     <row r="36" spans="1:42" ht="18" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
     </row>
     <row r="37" spans="1:42" ht="18" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7"/>
-      <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-      <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="7"/>
-      <c r="AP37" s="7"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
     </row>
     <row r="38" spans="1:42" ht="18" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
-      <c r="AJ38" s="7"/>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
     </row>
     <row r="39" spans="1:42" ht="18" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-      <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D33:AP39"/>
+    <mergeCell ref="D25:AP32"/>
+    <mergeCell ref="D7:AP24"/>
+    <mergeCell ref="A7:C24"/>
+    <mergeCell ref="A25:C32"/>
+    <mergeCell ref="A33:C39"/>
     <mergeCell ref="A1:AP3"/>
     <mergeCell ref="AC4:AD6"/>
     <mergeCell ref="AE5:AH6"/>
@@ -2659,15 +2681,6 @@
     <mergeCell ref="G5:AB5"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D33:AP39"/>
-    <mergeCell ref="D25:AP32"/>
-    <mergeCell ref="D7:AP24"/>
-    <mergeCell ref="A7:C24"/>
-    <mergeCell ref="A25:C32"/>
-    <mergeCell ref="A33:C39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
